--- a/N 8407 UG ARIS DT BARU.xlsx
+++ b/N 8407 UG ARIS DT BARU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>19/3/2024</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,23 +788,49 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32765</v>
+      </c>
+      <c r="F10" s="2">
+        <f>5000+E10</f>
+        <v>37765</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45415</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>34792</v>
+      </c>
+      <c r="F11" s="2">
+        <f>7000+E11</f>
+        <v>41792</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
